--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_atmos.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="745">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -159,6 +159,9 @@
     <t>cmip6.atmos.key_properties.overview.model_family</t>
   </si>
   <si>
+    <t>AGCM</t>
+  </si>
+  <si>
     <t>1.1.4 - Basic Approximations</t>
   </si>
   <si>
@@ -171,6 +174,12 @@
     <t>cmip6.atmos.key_properties.overview.basic_approximations</t>
   </si>
   <si>
+    <t>Hydrostatic</t>
+  </si>
+  <si>
+    <t>Primitive equations</t>
+  </si>
+  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -262,6 +271,9 @@
   </si>
   <si>
     <t>cmip6.atmos.key_properties.timestepping.timestep_shortwave_radiative_transfer</t>
+  </si>
+  <si>
+    <t>3 hours</t>
   </si>
   <si>
     <t>1.3.3 - Timestep Longwave Radiative Transfer</t>
@@ -2951,10 +2963,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2963,10 +2975,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2975,12 +2987,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -2997,7 +3009,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3009,7 +3021,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3017,7 +3029,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -3034,7 +3046,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -3046,7 +3058,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -3054,7 +3066,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -3071,7 +3083,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -3083,7 +3095,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3091,7 +3103,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -3108,32 +3120,32 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3142,12 +3154,12 @@
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -3164,19 +3176,19 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -3184,7 +3196,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -3201,29 +3213,29 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -3240,19 +3252,19 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -3260,7 +3272,7 @@
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -3277,7 +3289,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -3289,17 +3301,17 @@
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -3316,7 +3328,7 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
@@ -3328,20 +3340,20 @@
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3350,12 +3362,12 @@
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
       <c r="B48" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -3372,19 +3384,19 @@
     </row>
     <row r="51" spans="2:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1">
@@ -3392,7 +3404,7 @@
     </row>
     <row r="54" spans="2:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -3409,19 +3421,19 @@
     </row>
     <row r="55" spans="2:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="24" customHeight="1">
@@ -3429,7 +3441,7 @@
     </row>
     <row r="58" spans="2:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -3446,19 +3458,19 @@
     </row>
     <row r="59" spans="2:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="24" customHeight="1">
@@ -3466,7 +3478,7 @@
     </row>
     <row r="62" spans="2:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>30</v>
@@ -3483,7 +3495,7 @@
     </row>
     <row r="63" spans="2:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -3495,7 +3507,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="24" customHeight="1">
@@ -3503,7 +3515,7 @@
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -3520,7 +3532,7 @@
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -3532,7 +3544,7 @@
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
@@ -3594,10 +3606,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3606,10 +3618,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3618,12 +3630,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -3640,7 +3652,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3652,7 +3664,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3660,10 +3672,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3672,12 +3684,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -3694,19 +3706,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3714,10 +3726,10 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3726,12 +3738,12 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -3748,7 +3760,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -3760,17 +3772,17 @@
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -3787,19 +3799,19 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -3807,7 +3819,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -3824,7 +3836,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -3836,20 +3848,20 @@
         <v>35</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3858,12 +3870,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -3880,7 +3892,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -3892,17 +3904,17 @@
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -3919,7 +3931,7 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
@@ -3928,10 +3940,10 @@
         <v>26</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -3941,7 +3953,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -3958,7 +3970,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -3970,7 +3982,7 @@
         <v>35</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -3978,7 +3990,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -3995,7 +4007,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -4007,20 +4019,20 @@
         <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4029,12 +4041,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -4051,7 +4063,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -4060,10 +4072,10 @@
         <v>26</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -4116,10 +4128,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4128,10 +4140,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4140,12 +4152,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -4162,7 +4174,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -4174,7 +4186,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -4182,10 +4194,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4194,12 +4206,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -4216,7 +4228,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -4228,12 +4240,12 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -4248,7 +4260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4398,11 +4410,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -4419,448 +4433,457 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1">
+      <c r="B21" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1">
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1">
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1">
+      <c r="B28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1">
+      <c r="B31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1">
+      <c r="B32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1">
+      <c r="B35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1">
+      <c r="B36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1">
+      <c r="B40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24" customHeight="1">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1">
+      <c r="B43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1">
+      <c r="B44" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="24" customHeight="1">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="24" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="24" customHeight="1">
+      <c r="B49" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1">
+      <c r="B51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1">
+      <c r="B52" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="24" customHeight="1">
+      <c r="B53" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1">
+      <c r="B55" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1">
+      <c r="B56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="24" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24" customHeight="1">
+      <c r="B60" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" customHeight="1">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6" ht="24" customHeight="1">
+      <c r="B65" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="24" customHeight="1">
+      <c r="B68" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="24" customHeight="1">
+      <c r="B69" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="24" customHeight="1">
+      <c r="B71" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="24" customHeight="1">
+      <c r="B72" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
-      <c r="B20" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="B24" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1">
-      <c r="B26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="B27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1">
-      <c r="B30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1">
-      <c r="B31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1">
-      <c r="B32" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="24" customHeight="1">
-      <c r="B34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1">
-      <c r="B35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="24" customHeight="1">
-      <c r="B36" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="24" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="24" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1">
-      <c r="B40" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="24" customHeight="1">
-      <c r="B42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24" customHeight="1">
-      <c r="B43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" customHeight="1">
-      <c r="B44" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1">
-      <c r="B48" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1">
-      <c r="B50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1">
-      <c r="B51" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="24" customHeight="1">
-      <c r="B52" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="24" customHeight="1">
-      <c r="B55" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" customHeight="1">
-      <c r="B56" s="13"/>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1">
-      <c r="B59" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="63" spans="1:6" ht="24" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" customHeight="1">
-      <c r="B64" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="24" customHeight="1">
-      <c r="B66" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="24" customHeight="1">
-      <c r="B67" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="24" customHeight="1">
-      <c r="B68" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="24" customHeight="1">
-      <c r="B71" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="24" customHeight="1">
-      <c r="B72" s="13"/>
+      <c r="F72" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="24" customHeight="1">
+      <c r="B73" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -4870,16 +4893,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>"Primitive equations,Non-hydrostatic,Anelastic,Boussinesq,Hydrostatic,Quasi-hydrostatic,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
       <formula1>"Present day,Modified"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
       <formula1>"Related to ice sheets,Related to tectonics,Modified mean,Modified variance if taken into account in model (cf gravity waves)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4903,10 +4926,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4915,10 +4938,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4927,12 +4950,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -4949,7 +4972,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -4961,7 +4984,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -4969,10 +4992,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4981,12 +5004,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -5003,7 +5026,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -5015,17 +5038,17 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -5042,7 +5065,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -5054,7 +5077,7 @@
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -5062,7 +5085,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -5079,7 +5102,7 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -5091,7 +5114,7 @@
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -5099,7 +5122,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -5116,19 +5139,19 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -5136,7 +5159,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -5153,7 +5176,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -5165,7 +5188,7 @@
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -5173,10 +5196,10 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -5185,12 +5208,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -5207,19 +5230,19 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
@@ -5266,10 +5289,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -5278,10 +5301,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5290,12 +5313,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -5312,7 +5335,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -5324,7 +5347,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -5332,7 +5355,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -5349,19 +5372,19 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -5369,7 +5392,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -5386,7 +5409,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -5398,17 +5421,17 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -5425,52 +5448,52 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5479,12 +5502,12 @@
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -5501,7 +5524,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -5513,17 +5536,17 @@
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -5540,7 +5563,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -5552,17 +5575,17 @@
         <v>35</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -5579,7 +5602,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -5591,20 +5614,20 @@
         <v>35</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -5613,12 +5636,12 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -5635,19 +5658,19 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -5655,10 +5678,10 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -5667,12 +5690,12 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -5689,29 +5712,29 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -5728,7 +5751,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -5740,7 +5763,7 @@
         <v>42</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -5748,10 +5771,10 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -5760,12 +5783,12 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -5782,29 +5805,29 @@
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>30</v>
@@ -5821,29 +5844,29 @@
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>30</v>
@@ -5860,29 +5883,29 @@
     </row>
     <row r="75" spans="2:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1">
       <c r="B76" s="13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>30</v>
@@ -5899,7 +5922,7 @@
     </row>
     <row r="79" spans="2:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -5911,20 +5934,20 @@
         <v>42</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -5933,12 +5956,12 @@
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1">
       <c r="B84" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>30</v>
@@ -5955,19 +5978,19 @@
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1">
@@ -5975,7 +5998,7 @@
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>30</v>
@@ -5992,19 +6015,19 @@
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1">
@@ -6012,7 +6035,7 @@
     </row>
     <row r="94" spans="1:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>30</v>
@@ -6029,7 +6052,7 @@
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>1</v>
@@ -6041,7 +6064,7 @@
         <v>42</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="24" customHeight="1">
@@ -6049,7 +6072,7 @@
     </row>
     <row r="98" spans="2:6" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>30</v>
@@ -6066,29 +6089,29 @@
     </row>
     <row r="99" spans="2:6" ht="24" customHeight="1">
       <c r="B99" s="10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C99" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>30</v>
@@ -6105,7 +6128,7 @@
     </row>
     <row r="103" spans="2:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
@@ -6117,12 +6140,12 @@
         <v>42</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="24" customHeight="1">
       <c r="B104" s="13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6190,10 +6213,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -6202,10 +6225,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6214,12 +6237,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -6236,62 +6259,62 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -6300,12 +6323,12 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>30</v>
@@ -6322,7 +6345,7 @@
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C21" s="11" t="b">
         <v>1</v>
@@ -6334,7 +6357,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
@@ -6342,7 +6365,7 @@
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>30</v>
@@ -6359,19 +6382,19 @@
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1">
       <c r="B25" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C25" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
@@ -6379,7 +6402,7 @@
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>30</v>
@@ -6396,7 +6419,7 @@
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C29" s="11" t="b">
         <v>1</v>
@@ -6408,17 +6431,17 @@
         <v>42</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>30</v>
@@ -6435,19 +6458,19 @@
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1">
       <c r="B33" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C33" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
@@ -6455,7 +6478,7 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>30</v>
@@ -6472,7 +6495,7 @@
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1">
       <c r="B37" s="10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C37" s="11" t="b">
         <v>1</v>
@@ -6481,10 +6504,10 @@
         <v>26</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
@@ -6494,10 +6517,10 @@
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -6506,12 +6529,12 @@
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>30</v>
@@ -6528,19 +6551,19 @@
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1">
       <c r="B45" s="10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C45" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
@@ -6548,7 +6571,7 @@
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
       <c r="B48" s="8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>30</v>
@@ -6565,19 +6588,19 @@
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1">
       <c r="B49" s="10" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C49" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
@@ -6585,7 +6608,7 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>30</v>
@@ -6602,19 +6625,19 @@
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C53" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
@@ -6622,10 +6645,10 @@
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -6634,12 +6657,12 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>30</v>
@@ -6656,19 +6679,19 @@
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1">
       <c r="B61" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C61" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
@@ -6676,7 +6699,7 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>30</v>
@@ -6693,19 +6716,19 @@
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1">
       <c r="B65" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C65" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
@@ -6713,7 +6736,7 @@
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>30</v>
@@ -6730,19 +6753,19 @@
     </row>
     <row r="69" spans="1:6" ht="24" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C69" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
@@ -6750,10 +6773,10 @@
     </row>
     <row r="73" spans="1:6" ht="24" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -6762,12 +6785,12 @@
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
       <c r="B76" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>30</v>
@@ -6784,19 +6807,19 @@
     </row>
     <row r="77" spans="1:6" ht="24" customHeight="1">
       <c r="B77" s="10" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C77" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
@@ -6804,7 +6827,7 @@
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>30</v>
@@ -6821,19 +6844,19 @@
     </row>
     <row r="81" spans="1:6" ht="24" customHeight="1">
       <c r="B81" s="10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C81" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="24" customHeight="1">
@@ -6841,7 +6864,7 @@
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>30</v>
@@ -6858,19 +6881,19 @@
     </row>
     <row r="85" spans="1:6" ht="24" customHeight="1">
       <c r="B85" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C85" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="24" customHeight="1">
@@ -6878,10 +6901,10 @@
     </row>
     <row r="89" spans="1:6" ht="24" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6890,12 +6913,12 @@
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1">
       <c r="B90" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1">
       <c r="B92" s="8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>30</v>
@@ -6912,7 +6935,7 @@
     </row>
     <row r="93" spans="1:6" ht="24" customHeight="1">
       <c r="B93" s="10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C93" s="11" t="b">
         <v>1</v>
@@ -6924,7 +6947,7 @@
         <v>42</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="24" customHeight="1">
@@ -6932,10 +6955,10 @@
     </row>
     <row r="97" spans="1:6" ht="24" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -6944,12 +6967,12 @@
     </row>
     <row r="98" spans="1:6" ht="24" customHeight="1">
       <c r="B98" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1">
       <c r="B100" s="8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>30</v>
@@ -6966,19 +6989,19 @@
     </row>
     <row r="101" spans="1:6" ht="24" customHeight="1">
       <c r="B101" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C101" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1">
@@ -6986,7 +7009,7 @@
     </row>
     <row r="104" spans="1:6" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>30</v>
@@ -7003,19 +7026,19 @@
     </row>
     <row r="105" spans="1:6" ht="24" customHeight="1">
       <c r="B105" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C105" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="24" customHeight="1">
@@ -7023,7 +7046,7 @@
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1">
       <c r="B108" s="8" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>30</v>
@@ -7040,19 +7063,19 @@
     </row>
     <row r="109" spans="1:6" ht="24" customHeight="1">
       <c r="B109" s="10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C109" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="24" customHeight="1">
@@ -7060,10 +7083,10 @@
     </row>
     <row r="113" spans="1:6" ht="24" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -7072,12 +7095,12 @@
     </row>
     <row r="114" spans="1:6" ht="24" customHeight="1">
       <c r="B114" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="24" customHeight="1">
       <c r="B116" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>30</v>
@@ -7094,19 +7117,19 @@
     </row>
     <row r="117" spans="1:6" ht="24" customHeight="1">
       <c r="B117" s="10" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C117" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="24" customHeight="1">
@@ -7114,10 +7137,10 @@
     </row>
     <row r="121" spans="1:6" ht="24" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -7126,12 +7149,12 @@
     </row>
     <row r="122" spans="1:6" ht="24" customHeight="1">
       <c r="B122" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="24" customHeight="1">
       <c r="B124" s="8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>30</v>
@@ -7148,7 +7171,7 @@
     </row>
     <row r="125" spans="1:6" ht="24" customHeight="1">
       <c r="B125" s="10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C125" s="11" t="b">
         <v>1</v>
@@ -7160,7 +7183,7 @@
         <v>35</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="24" customHeight="1">
@@ -7168,7 +7191,7 @@
     </row>
     <row r="128" spans="1:6" ht="24" customHeight="1">
       <c r="B128" s="8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>30</v>
@@ -7185,19 +7208,19 @@
     </row>
     <row r="129" spans="2:6" ht="24" customHeight="1">
       <c r="B129" s="10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C129" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="2:6" ht="24" customHeight="1">
@@ -7205,7 +7228,7 @@
     </row>
     <row r="132" spans="2:6" ht="24" customHeight="1">
       <c r="B132" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>30</v>
@@ -7222,7 +7245,7 @@
     </row>
     <row r="133" spans="2:6" ht="24" customHeight="1">
       <c r="B133" s="10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C133" s="11" t="b">
         <v>1</v>
@@ -7234,17 +7257,17 @@
         <v>42</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="2:6" ht="24" customHeight="1">
       <c r="B134" s="13" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="2:6" ht="24" customHeight="1">
       <c r="B136" s="8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>30</v>
@@ -7261,29 +7284,29 @@
     </row>
     <row r="137" spans="2:6" ht="24" customHeight="1">
       <c r="B137" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C137" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="2:6" ht="24" customHeight="1">
       <c r="B138" s="13" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="24" customHeight="1">
       <c r="B140" s="8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>30</v>
@@ -7300,7 +7323,7 @@
     </row>
     <row r="141" spans="2:6" ht="24" customHeight="1">
       <c r="B141" s="10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C141" s="11" t="b">
         <v>1</v>
@@ -7309,10 +7332,10 @@
         <v>26</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" spans="2:6" ht="24" customHeight="1">
@@ -7322,10 +7345,10 @@
     </row>
     <row r="145" spans="1:6" ht="24" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -7334,12 +7357,12 @@
     </row>
     <row r="146" spans="1:6" ht="24" customHeight="1">
       <c r="B146" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="24" customHeight="1">
       <c r="B148" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>30</v>
@@ -7356,19 +7379,19 @@
     </row>
     <row r="149" spans="1:6" ht="24" customHeight="1">
       <c r="B149" s="10" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C149" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="24" customHeight="1">
@@ -7376,7 +7399,7 @@
     </row>
     <row r="152" spans="1:6" ht="24" customHeight="1">
       <c r="B152" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>30</v>
@@ -7393,19 +7416,19 @@
     </row>
     <row r="153" spans="1:6" ht="24" customHeight="1">
       <c r="B153" s="10" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C153" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="24" customHeight="1">
@@ -7413,7 +7436,7 @@
     </row>
     <row r="156" spans="1:6" ht="24" customHeight="1">
       <c r="B156" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>30</v>
@@ -7430,19 +7453,19 @@
     </row>
     <row r="157" spans="1:6" ht="24" customHeight="1">
       <c r="B157" s="10" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C157" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="24" customHeight="1">
@@ -7450,10 +7473,10 @@
     </row>
     <row r="161" spans="1:6" ht="24" customHeight="1">
       <c r="A161" s="4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -7462,12 +7485,12 @@
     </row>
     <row r="162" spans="1:6" ht="24" customHeight="1">
       <c r="B162" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="24" customHeight="1">
       <c r="B164" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>30</v>
@@ -7484,19 +7507,19 @@
     </row>
     <row r="165" spans="1:6" ht="24" customHeight="1">
       <c r="B165" s="10" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C165" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="24" customHeight="1">
@@ -7504,7 +7527,7 @@
     </row>
     <row r="168" spans="1:6" ht="24" customHeight="1">
       <c r="B168" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>30</v>
@@ -7521,19 +7544,19 @@
     </row>
     <row r="169" spans="1:6" ht="24" customHeight="1">
       <c r="B169" s="10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C169" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="24" customHeight="1">
@@ -7541,7 +7564,7 @@
     </row>
     <row r="172" spans="1:6" ht="24" customHeight="1">
       <c r="B172" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>30</v>
@@ -7558,19 +7581,19 @@
     </row>
     <row r="173" spans="1:6" ht="24" customHeight="1">
       <c r="B173" s="10" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C173" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="24" customHeight="1">
@@ -7578,10 +7601,10 @@
     </row>
     <row r="177" spans="1:6" ht="24" customHeight="1">
       <c r="A177" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -7590,12 +7613,12 @@
     </row>
     <row r="178" spans="1:6" ht="24" customHeight="1">
       <c r="B178" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="24" customHeight="1">
       <c r="B180" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>30</v>
@@ -7612,19 +7635,19 @@
     </row>
     <row r="181" spans="1:6" ht="24" customHeight="1">
       <c r="B181" s="10" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C181" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E181" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="24" customHeight="1">
@@ -7632,7 +7655,7 @@
     </row>
     <row r="184" spans="1:6" ht="24" customHeight="1">
       <c r="B184" s="8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>30</v>
@@ -7649,19 +7672,19 @@
     </row>
     <row r="185" spans="1:6" ht="24" customHeight="1">
       <c r="B185" s="10" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C185" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="24" customHeight="1">
@@ -7669,7 +7692,7 @@
     </row>
     <row r="188" spans="1:6" ht="24" customHeight="1">
       <c r="B188" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>30</v>
@@ -7686,19 +7709,19 @@
     </row>
     <row r="189" spans="1:6" ht="24" customHeight="1">
       <c r="B189" s="10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C189" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E189" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="24" customHeight="1">
@@ -7706,10 +7729,10 @@
     </row>
     <row r="193" spans="1:6" ht="24" customHeight="1">
       <c r="A193" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -7718,12 +7741,12 @@
     </row>
     <row r="194" spans="1:6" ht="24" customHeight="1">
       <c r="B194" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="24" customHeight="1">
       <c r="B196" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>30</v>
@@ -7740,7 +7763,7 @@
     </row>
     <row r="197" spans="1:6" ht="24" customHeight="1">
       <c r="B197" s="10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C197" s="11" t="b">
         <v>1</v>
@@ -7752,7 +7775,7 @@
         <v>42</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="24" customHeight="1">
@@ -7760,10 +7783,10 @@
     </row>
     <row r="201" spans="1:6" ht="24" customHeight="1">
       <c r="A201" s="4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -7772,12 +7795,12 @@
     </row>
     <row r="202" spans="1:6" ht="24" customHeight="1">
       <c r="B202" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="24" customHeight="1">
       <c r="B204" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>30</v>
@@ -7794,19 +7817,19 @@
     </row>
     <row r="205" spans="1:6" ht="24" customHeight="1">
       <c r="B205" s="10" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C205" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E205" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="24" customHeight="1">
@@ -7814,7 +7837,7 @@
     </row>
     <row r="208" spans="1:6" ht="24" customHeight="1">
       <c r="B208" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C208" s="9" t="s">
         <v>30</v>
@@ -7831,19 +7854,19 @@
     </row>
     <row r="209" spans="1:6" ht="24" customHeight="1">
       <c r="B209" s="10" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C209" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E209" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="24" customHeight="1">
@@ -7851,7 +7874,7 @@
     </row>
     <row r="212" spans="1:6" ht="24" customHeight="1">
       <c r="B212" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C212" s="9" t="s">
         <v>30</v>
@@ -7868,19 +7891,19 @@
     </row>
     <row r="213" spans="1:6" ht="24" customHeight="1">
       <c r="B213" s="10" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C213" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E213" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="24" customHeight="1">
@@ -7888,10 +7911,10 @@
     </row>
     <row r="217" spans="1:6" ht="24" customHeight="1">
       <c r="A217" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -7900,12 +7923,12 @@
     </row>
     <row r="218" spans="1:6" ht="24" customHeight="1">
       <c r="B218" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="24" customHeight="1">
       <c r="B220" s="8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>30</v>
@@ -7922,19 +7945,19 @@
     </row>
     <row r="221" spans="1:6" ht="24" customHeight="1">
       <c r="B221" s="10" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C221" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E221" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="24" customHeight="1">
@@ -8065,10 +8088,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8077,10 +8100,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8089,12 +8112,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -8111,7 +8134,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8123,7 +8146,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8131,10 +8154,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8143,12 +8166,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -8165,29 +8188,29 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -8204,29 +8227,29 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -8243,7 +8266,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -8252,10 +8275,10 @@
         <v>26</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
@@ -8265,7 +8288,7 @@
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -8282,7 +8305,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -8291,10 +8314,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -8304,10 +8327,10 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -8316,12 +8339,12 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -8338,29 +8361,29 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -8377,29 +8400,29 @@
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -8416,19 +8439,19 @@
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
@@ -8436,7 +8459,7 @@
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -8453,49 +8476,49 @@
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -8512,19 +8535,19 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
@@ -8532,10 +8555,10 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -8544,12 +8567,12 @@
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>30</v>
@@ -8566,19 +8589,19 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -8586,7 +8609,7 @@
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -8603,19 +8626,19 @@
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
@@ -8623,7 +8646,7 @@
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>30</v>
@@ -8640,7 +8663,7 @@
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -8652,7 +8675,7 @@
         <v>42</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">
@@ -8660,7 +8683,7 @@
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>30</v>
@@ -8677,19 +8700,19 @@
     </row>
     <row r="75" spans="2:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1">
@@ -8697,7 +8720,7 @@
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>30</v>
@@ -8714,19 +8737,19 @@
     </row>
     <row r="79" spans="2:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="24" customHeight="1">
@@ -8788,10 +8811,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8800,10 +8823,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8812,12 +8835,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -8834,7 +8857,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8846,7 +8869,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8854,10 +8877,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8866,12 +8889,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -8888,29 +8911,29 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -8927,47 +8950,47 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -8976,12 +8999,12 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>30</v>
@@ -8998,29 +9021,29 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C30" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="24" customHeight="1">
       <c r="B33" s="8" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>30</v>
@@ -9037,44 +9060,44 @@
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C34" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -9106,10 +9129,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9118,10 +9141,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9130,12 +9153,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -9152,7 +9175,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -9164,7 +9187,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -9172,7 +9195,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -9189,19 +9212,19 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -9209,7 +9232,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -9226,19 +9249,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -9246,7 +9269,7 @@
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -9263,7 +9286,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -9272,10 +9295,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -9285,7 +9308,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -9302,29 +9325,29 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -9341,7 +9364,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -9350,10 +9373,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -9361,7 +9384,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -9378,7 +9401,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -9387,10 +9410,10 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -9398,7 +9421,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -9415,19 +9438,19 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -9435,10 +9458,10 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -9447,12 +9470,12 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -9469,19 +9492,19 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -9489,7 +9512,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -9506,19 +9529,19 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -9526,10 +9549,10 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -9538,12 +9561,12 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -9560,7 +9583,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -9572,7 +9595,7 @@
         <v>42</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
@@ -9580,7 +9603,7 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -9597,7 +9620,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -9609,17 +9632,17 @@
         <v>35</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>30</v>
@@ -9636,7 +9659,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -9645,10 +9668,10 @@
         <v>26</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -9656,7 +9679,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -9673,19 +9696,19 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
@@ -9693,10 +9716,10 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -9705,12 +9728,12 @@
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="B72" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>30</v>
@@ -9727,7 +9750,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -9739,7 +9762,7 @@
         <v>42</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -9747,7 +9770,7 @@
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>30</v>
@@ -9764,7 +9787,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -9776,7 +9799,7 @@
         <v>35</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
@@ -9784,7 +9807,7 @@
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>30</v>
@@ -9801,7 +9824,7 @@
     </row>
     <row r="83" spans="2:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C83" s="11" t="b">
         <v>1</v>
@@ -9810,10 +9833,10 @@
         <v>26</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="24" customHeight="1">
@@ -9821,7 +9844,7 @@
     </row>
     <row r="86" spans="2:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>30</v>
@@ -9838,19 +9861,19 @@
     </row>
     <row r="87" spans="2:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="24" customHeight="1">
@@ -9918,10 +9941,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9930,10 +9953,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9942,12 +9965,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -9964,7 +9987,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -9976,7 +9999,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -9984,10 +10007,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -9996,12 +10019,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -10018,29 +10041,29 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -10057,7 +10080,7 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -10069,20 +10092,20 @@
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -10091,12 +10114,12 @@
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -10113,7 +10136,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -10125,17 +10148,17 @@
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -10152,7 +10175,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -10161,10 +10184,10 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -10174,7 +10197,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -10191,7 +10214,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -10200,10 +10223,10 @@
         <v>26</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -10213,7 +10236,7 @@
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -10230,7 +10253,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -10239,10 +10262,10 @@
         <v>26</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
@@ -10252,10 +10275,10 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -10264,12 +10287,12 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -10286,7 +10309,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -10295,10 +10318,10 @@
         <v>26</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -10308,7 +10331,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -10325,7 +10348,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -10337,17 +10360,17 @@
         <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -10364,7 +10387,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -10373,10 +10396,10 @@
         <v>26</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
@@ -10386,7 +10409,7 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -10403,7 +10426,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -10412,10 +10435,10 @@
         <v>26</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -10425,10 +10448,10 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -10437,12 +10460,12 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -10459,7 +10482,7 @@
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -10471,17 +10494,17 @@
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>30</v>
@@ -10498,24 +10521,24 @@
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_atmos.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_atmos.xlsx
@@ -48,7 +48,7 @@
     <t>MIROC6</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmosphere</t>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_atmos.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_atmos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkhr_i\OneDrive\仕事\ES-DOC\github\cmip6\models\miroc6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_95444C3A59773848156225B544942AFE468DD4CE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A42E6A86-5B16-4213-B23E-B962161F01D2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_95444C3A59773848156225B544942AFE468DD4CE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3CE5E0DE-41FA-4DBA-B85C-0B79D7AA4919}"/>
   <bookViews>
-    <workbookView xWindow="790" yWindow="2400" windowWidth="19200" windowHeight="10510" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12790" yWindow="-10" windowWidth="12820" windowHeight="14420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="1193">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1890,18 +1890,6 @@
     <t>cmip6.atmos.microphysics_precipitation.large_scale_precipitation.hydrometeors</t>
   </si>
   <si>
-    <t>liquid rain</t>
-  </si>
-  <si>
-    <t>snow</t>
-  </si>
-  <si>
-    <t>hail</t>
-  </si>
-  <si>
-    <t>graupel</t>
-  </si>
-  <si>
     <t>6.3.1</t>
   </si>
   <si>
@@ -1929,30 +1917,6 @@
     <t>cmip6.atmos.microphysics_precipitation.large_scale_cloud_microphysics.processes</t>
   </si>
   <si>
-    <t>mixed phase</t>
-  </si>
-  <si>
-    <t>cloud droplets</t>
-  </si>
-  <si>
-    <t>cloud ice</t>
-  </si>
-  <si>
-    <t>ice nucleation</t>
-  </si>
-  <si>
-    <t>water vapour deposition</t>
-  </si>
-  <si>
-    <t>effect of raindrops</t>
-  </si>
-  <si>
-    <t>effect of snow</t>
-  </si>
-  <si>
-    <t>effect of graupel</t>
-  </si>
-  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -2052,9 +2016,6 @@
     <t>cmip6.atmos.cloud_scheme.optical_cloud_properties.cloud_overlap_method</t>
   </si>
   <si>
-    <t>random</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.2.1.2 </t>
   </si>
   <si>
@@ -2211,15 +2172,9 @@
     <t>cmip6.atmos.observation_simulation.isscp_attributes.top_height_estimation_method</t>
   </si>
   <si>
-    <t>no adjustment</t>
-  </si>
-  <si>
     <t>IR brightness</t>
   </si>
   <si>
-    <t>visible optical depth</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.2.1.2 </t>
   </si>
   <si>
@@ -2232,12 +2187,6 @@
     <t>cmip6.atmos.observation_simulation.isscp_attributes.top_height_direction</t>
   </si>
   <si>
-    <t>lowest altitude level</t>
-  </si>
-  <si>
-    <t>highest altitude level</t>
-  </si>
-  <si>
     <t>8.3.1</t>
   </si>
   <si>
@@ -2334,12 +2283,6 @@
     <t>cmip6.atmos.observation_simulation.radar_inputs.type</t>
   </si>
   <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>space borne</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.4.1.3 </t>
   </si>
   <si>
@@ -2385,12 +2328,6 @@
     <t>cmip6.atmos.observation_simulation.lidar_inputs.ice_types</t>
   </si>
   <si>
-    <t>ice spheres</t>
-  </si>
-  <si>
-    <t>ice non-spherical</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.5.1.2 </t>
   </si>
   <si>
@@ -2401,9 +2338,6 @@
   </si>
   <si>
     <t>cmip6.atmos.observation_simulation.lidar_inputs.overlap</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
   <si>
     <t>9.1.1</t>
@@ -3564,6 +3498,172 @@
   </si>
   <si>
     <t>Semi-staggered grid</t>
+  </si>
+  <si>
+    <t>The large scale cloud microphysics and precipitation scheme is based on Wilson and Ballard (1999) and Berry (1967).</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Liquid rain</t>
+  </si>
+  <si>
+    <t>Hail</t>
+  </si>
+  <si>
+    <t>Graupel</t>
+  </si>
+  <si>
+    <t>Ice, including both cloud ice and snow.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Mixed phase</t>
+  </si>
+  <si>
+    <t>Cloud droplets</t>
+  </si>
+  <si>
+    <t>Cloud ice</t>
+  </si>
+  <si>
+    <t>Ice nucleation</t>
+  </si>
+  <si>
+    <t>Water vapour deposition</t>
+  </si>
+  <si>
+    <t>Effect of raindrops</t>
+  </si>
+  <si>
+    <t>Effect of snow</t>
+  </si>
+  <si>
+    <t>Effect of graupel</t>
+  </si>
+  <si>
+    <t>COSP version 1.4.1</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The CFMIP Observation Simulator Package (COSP, Bodas-Salcedo et al. 2011) is implemented in the atmospheric model. The COSP is a software tool that post-processes output data from the atmospheric model to simulate observations of multiple satellite instruments.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>top height adjusted using both a computed infrared brightness temperature and the visible optical depth</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>No adjustment</t>
+  </si>
+  <si>
+    <t>Visible optical depth</t>
+  </si>
+  <si>
+    <t>Highest altitude level</t>
+  </si>
+  <si>
+    <t>Lowest altitude level</t>
+  </si>
+  <si>
+    <t>Space borne</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Ice spheres</t>
+  </si>
+  <si>
+    <t>Ice non-spherical</t>
+  </si>
+  <si>
+    <t>Maximum-Random overlap</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>TATEBE-H</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>OGURA-T</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>OGOCHI-K</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>TAKEMURA-T</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Sudo-Kengo</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>SEKIGUCHI-M</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ABE-M</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>SAITO-F</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CHIKIRA-M</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>WATANABE-S</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>MORI-M</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>HIROTA-N</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>KAWATANI-Y</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>MOCHIZUKI-T</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>KATAOKA-T</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>WATANABE-HIRO</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>KIMOTO-M</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>NISHIMURA-T</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>KANAI-H</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
@@ -4277,7 +4377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AD77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
@@ -4289,20 +4391,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4313,18 +4415,20 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>1159</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>57</v>
@@ -4335,10 +4439,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4347,27 +4451,29 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4375,10 +4481,10 @@
         <v>64</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4387,15 +4493,20 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1161</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>726</v>
+        <v>1162</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>728</v>
+        <v>1163</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>69</v>
@@ -4403,10 +4514,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4414,19 +4525,21 @@
         <v>64</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>1164</v>
+      </c>
       <c r="AA24" s="6" t="s">
-        <v>733</v>
+        <v>1165</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>734</v>
+        <v>1164</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>69</v>
@@ -4434,23 +4547,23 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4458,19 +4571,21 @@
         <v>64</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>725</v>
+      </c>
       <c r="AA32" s="6" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>69</v>
@@ -4478,10 +4593,10 @@
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4489,21 +4604,23 @@
         <v>101</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11">
+        <v>32768</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4511,21 +4628,23 @@
         <v>101</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11">
+        <v>140</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4533,53 +4652,57 @@
         <v>101</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="11"/>
+      <c r="B44" s="11">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
-      <c r="B52" s="11"/>
+      <c r="B52" s="11">
+        <v>94</v>
+      </c>
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>128</v>
@@ -4590,19 +4713,21 @@
         <v>64</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>1166</v>
+      </c>
       <c r="AA56" s="6" t="s">
-        <v>767</v>
+        <v>1167</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>768</v>
+        <v>1166</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>69</v>
@@ -4610,10 +4735,10 @@
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
@@ -4621,21 +4746,23 @@
         <v>106</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
-      <c r="B60" s="11"/>
+      <c r="B60" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
@@ -4643,34 +4770,36 @@
         <v>106</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -4678,19 +4807,21 @@
         <v>64</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
+      <c r="B72" s="11" t="s">
+        <v>1168</v>
+      </c>
       <c r="AA72" s="6" t="s">
-        <v>784</v>
+        <v>1168</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>785</v>
+        <v>1169</v>
       </c>
       <c r="AC72" s="6" t="s">
         <v>69</v>
@@ -4698,10 +4829,10 @@
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
@@ -4709,10 +4840,10 @@
         <v>64</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -4721,12 +4852,17 @@
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="B77" s="11"/>
+      <c r="B77" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>1170</v>
+      </c>
       <c r="AA77" s="6" t="s">
-        <v>790</v>
+        <v>1171</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>673</v>
+        <v>1022</v>
       </c>
       <c r="AC77" s="6" t="s">
         <v>69</v>
@@ -4735,16 +4871,16 @@
   </sheetData>
   <phoneticPr fontId="15"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{2A285B41-6A36-45A0-B61E-36F66C65C8E0}">
       <formula1>AA20:AD20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B77 B72 B56 B32" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B72 B56 B32 B77" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>AA24:AC24</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36 B44 B40" xr:uid="{00000000-0002-0000-0900-000003000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36 B40 B44" xr:uid="{00000000-0002-0000-0900-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52" xr:uid="{00000000-0002-0000-0900-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52" xr:uid="{3BA47290-2F5F-4A8E-A9E2-5FD87C55681C}">
       <formula1>-1000000</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
@@ -4772,20 +4908,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4796,20 +4932,20 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>1052</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>57</v>
@@ -4820,10 +4956,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -4833,15 +4969,15 @@
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>1053</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -4849,10 +4985,10 @@
         <v>64</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -4860,13 +4996,13 @@
         <v>69</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1054</v>
+        <v>1032</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>69</v>
@@ -4874,10 +5010,10 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4885,10 +5021,10 @@
         <v>64</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4896,13 +5032,13 @@
         <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1055</v>
+        <v>1033</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>1056</v>
+        <v>1034</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>1057</v>
+        <v>1035</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>69</v>
@@ -4910,10 +5046,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4921,10 +5057,10 @@
         <v>64</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4934,16 +5070,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>1058</v>
+        <v>1036</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>1058</v>
+        <v>1036</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>1059</v>
+        <v>1037</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>69</v>
@@ -4951,20 +5087,20 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>45</v>
@@ -4975,23 +5111,23 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>1061</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
@@ -4999,10 +5135,10 @@
         <v>64</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -5012,22 +5148,22 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>1062</v>
+        <v>1040</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>1062</v>
+        <v>1040</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>1063</v>
+        <v>1041</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>1064</v>
+        <v>1042</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>1065</v>
+        <v>1043</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>1066</v>
+        <v>1044</v>
       </c>
       <c r="AF37" s="6" t="s">
         <v>69</v>
@@ -5035,10 +5171,10 @@
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
@@ -5046,10 +5182,10 @@
         <v>64</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -5062,13 +5198,13 @@
         <v>69</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1067</v>
+        <v>1045</v>
       </c>
       <c r="AA42" s="6" t="s">
-        <v>1068</v>
+        <v>1046</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>1069</v>
+        <v>1047</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>69</v>
@@ -5076,10 +5212,10 @@
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
@@ -5087,24 +5223,24 @@
         <v>64</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="AD46" s="6" t="s">
         <v>69</v>
@@ -5112,10 +5248,10 @@
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="24" customHeight="1">
@@ -5123,30 +5259,30 @@
         <v>64</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="24" customHeight="1">
       <c r="B50" s="11" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>1077</v>
+        <v>1055</v>
       </c>
       <c r="AF50" s="6" t="s">
         <v>69</v>
@@ -5154,20 +5290,20 @@
     </row>
     <row r="53" spans="1:32" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>45</v>
@@ -5178,23 +5314,23 @@
         <v>46</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="24" customHeight="1">
@@ -5202,10 +5338,10 @@
         <v>64</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="24" customHeight="1">
@@ -5218,16 +5354,16 @@
         <v>69</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>1081</v>
+        <v>1059</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>1082</v>
+        <v>1060</v>
       </c>
       <c r="AD63" s="6" t="s">
         <v>69</v>
@@ -5235,10 +5371,10 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -5246,10 +5382,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -5259,21 +5395,21 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>1083</v>
+        <v>1061</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>1083</v>
+        <v>1061</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>1084</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
@@ -5281,21 +5417,21 @@
         <v>64</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>850</v>
+        <v>828</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="AA72" s="6" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="AC72" s="6" t="s">
         <v>69</v>
@@ -5303,10 +5439,10 @@
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
@@ -5314,30 +5450,30 @@
         <v>64</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="AA76" s="6" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="AD76" s="6" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="AE76" s="6" t="s">
-        <v>1077</v>
+        <v>1055</v>
       </c>
       <c r="AF76" s="6" t="s">
         <v>69</v>
@@ -5381,20 +5517,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>856</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5405,10 +5541,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>859</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5416,7 +5552,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>57</v>
@@ -5427,10 +5563,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>862</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5443,23 +5579,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>865</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5467,10 +5603,10 @@
         <v>64</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5480,16 +5616,16 @@
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>1116</v>
+        <v>1094</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>1116</v>
+        <v>1094</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>1117</v>
+        <v>1095</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>1118</v>
+        <v>1096</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>69</v>
@@ -5497,20 +5633,20 @@
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>871</v>
+        <v>849</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>872</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>128</v>
@@ -5521,40 +5657,40 @@
         <v>64</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
       <c r="AA28" s="6" t="s">
         <v>131</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -5562,10 +5698,10 @@
     </row>
     <row r="34" spans="1:28" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="24" customHeight="1">
@@ -5573,10 +5709,10 @@
         <v>46</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>883</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
@@ -5584,20 +5720,20 @@
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>884</v>
+        <v>862</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>128</v>
@@ -5608,10 +5744,10 @@
         <v>64</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24" customHeight="1">
@@ -5622,15 +5758,15 @@
         <v>131</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="24" customHeight="1">
@@ -5638,10 +5774,10 @@
         <v>101</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
@@ -5649,10 +5785,10 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
@@ -5660,10 +5796,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -5671,10 +5807,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -5682,21 +5818,21 @@
         <v>64</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>69</v>
@@ -5704,23 +5840,23 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
@@ -5728,10 +5864,10 @@
         <v>106</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -5741,23 +5877,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -5765,10 +5901,10 @@
         <v>46</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -5778,15 +5914,15 @@
     </row>
     <row r="73" spans="1:29" ht="178" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>1120</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -5794,21 +5930,21 @@
         <v>64</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>1121</v>
+        <v>1099</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>1122</v>
+        <v>1100</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>1121</v>
+        <v>1099</v>
       </c>
       <c r="AC77" s="6" t="s">
         <v>69</v>
@@ -5844,9 +5980,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
@@ -5891,50 +6029,198 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2" ht="18">
-      <c r="A12" s="9" t="s">
+      <c r="A9" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.5">
+      <c r="A10" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.5">
+      <c r="A11" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.5">
+      <c r="A12" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.5">
+      <c r="A13" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.5">
+      <c r="A14" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.5">
+      <c r="A15" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.5">
+      <c r="A16" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.5">
+      <c r="A17" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.5">
+      <c r="A18" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.5">
+      <c r="A19" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.5">
+      <c r="A20" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.5">
+      <c r="A21" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.5">
+      <c r="A22" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.5">
+      <c r="A23" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.5">
+      <c r="A24" s="11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.5">
+      <c r="A25" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.5">
+      <c r="A26" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.5">
+      <c r="A27" s="11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18">
+      <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="35" spans="1:2" ht="17.5">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B27" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Dynamical Core,Radiation,Turbulence Convection,Microphysics Precipitation,Cloud Scheme,Observation Simulation,Gravity Waves,Natural Forcing"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A31" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6714,13 +7000,13 @@
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>1123</v>
+        <v>1101</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>69</v>
@@ -6906,22 +7192,22 @@
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>1124</v>
+        <v>1102</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>1125</v>
+        <v>1103</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1126</v>
+        <v>1104</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>1124</v>
+        <v>1102</v>
       </c>
       <c r="AD44" s="6" t="s">
-        <v>1127</v>
+        <v>1105</v>
       </c>
       <c r="AE44" s="6" t="s">
-        <v>1128</v>
+        <v>1106</v>
       </c>
       <c r="AF44" s="6" t="s">
         <v>69</v>
@@ -6951,7 +7237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="B12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
@@ -7046,25 +7332,25 @@
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>1129</v>
+        <v>1107</v>
       </c>
       <c r="AA15" s="6" t="s">
         <v>232</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>1130</v>
+        <v>1108</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>1131</v>
+        <v>1109</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>1132</v>
+        <v>1110</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>1129</v>
+        <v>1107</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>1133</v>
+        <v>1111</v>
       </c>
       <c r="AG15" s="6" t="s">
         <v>233</v>
@@ -7105,40 +7391,40 @@
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>1136</v>
+        <v>1114</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>1137</v>
+        <v>1115</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>1138</v>
+        <v>1116</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="AL20" s="6" t="s">
         <v>336</v>
@@ -7149,40 +7435,40 @@
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>1137</v>
+        <v>1115</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>1136</v>
+        <v>1114</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>1137</v>
+        <v>1115</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>1138</v>
+        <v>1116</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="AL21" s="6" t="s">
         <v>336</v>
@@ -7193,40 +7479,40 @@
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>1136</v>
+        <v>1114</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>1137</v>
+        <v>1115</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>1138</v>
+        <v>1116</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="AK22" s="6" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="AL22" s="6" t="s">
         <v>336</v>
@@ -7237,40 +7523,40 @@
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>1136</v>
+        <v>1114</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>1137</v>
+        <v>1115</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>1138</v>
+        <v>1116</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="AL23" s="6" t="s">
         <v>336</v>
@@ -7281,40 +7567,40 @@
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>1136</v>
+        <v>1114</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>1137</v>
+        <v>1115</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>1138</v>
+        <v>1116</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="AL24" s="6" t="s">
         <v>336</v>
@@ -7325,40 +7611,40 @@
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>1136</v>
+        <v>1114</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>1137</v>
+        <v>1115</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>1138</v>
+        <v>1116</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="AL25" s="6" t="s">
         <v>336</v>
@@ -7372,40 +7658,40 @@
         <v>69</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1145</v>
+        <v>1123</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>1136</v>
+        <v>1114</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>1137</v>
+        <v>1115</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>1138</v>
+        <v>1116</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="AJ26" s="6" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="AK26" s="6" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="AL26" s="6" t="s">
         <v>336</v>
@@ -7448,13 +7734,13 @@
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>1146</v>
+        <v>1124</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>1146</v>
+        <v>1124</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>1147</v>
+        <v>1125</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>69</v>
@@ -7604,13 +7890,13 @@
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="B61" s="11" t="s">
-        <v>1148</v>
+        <v>1126</v>
       </c>
       <c r="AA61" s="6" t="s">
-        <v>1149</v>
+        <v>1127</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>1148</v>
+        <v>1126</v>
       </c>
       <c r="AC61" s="6" t="s">
         <v>69</v>
@@ -7653,7 +7939,7 @@
         <v>69</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1150</v>
+        <v>1128</v>
       </c>
       <c r="AA69" s="6" t="s">
         <v>280</v>
@@ -7703,43 +7989,43 @@
         <v>69</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1151</v>
+        <v>1129</v>
       </c>
       <c r="AA74" s="6" t="s">
         <v>289</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>1152</v>
+        <v>1130</v>
       </c>
       <c r="AC74" s="6" t="s">
         <v>290</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>1153</v>
+        <v>1131</v>
       </c>
       <c r="AE74" s="6" t="s">
-        <v>1154</v>
+        <v>1132</v>
       </c>
       <c r="AF74" s="6" t="s">
-        <v>1155</v>
+        <v>1133</v>
       </c>
       <c r="AG74" s="6" t="s">
-        <v>1156</v>
+        <v>1134</v>
       </c>
       <c r="AH74" s="6" t="s">
-        <v>1157</v>
+        <v>1135</v>
       </c>
       <c r="AI74" s="6" t="s">
-        <v>1158</v>
+        <v>1136</v>
       </c>
       <c r="AJ74" s="6" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="AK74" s="6" t="s">
-        <v>1159</v>
+        <v>1137</v>
       </c>
       <c r="AL74" s="6" t="s">
-        <v>1160</v>
+        <v>1138</v>
       </c>
       <c r="AM74" s="6" t="s">
         <v>69</v>
@@ -7771,13 +8057,13 @@
     </row>
     <row r="79" spans="1:39" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>1161</v>
+        <v>1139</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>1162</v>
+        <v>1140</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>1161</v>
+        <v>1139</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>69</v>
@@ -7804,10 +8090,10 @@
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>1163</v>
+        <v>1141</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>1163</v>
+        <v>1141</v>
       </c>
       <c r="AB83" s="6" t="s">
         <v>300</v>
@@ -7892,7 +8178,7 @@
         <v>69</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1164</v>
+        <v>1142</v>
       </c>
       <c r="AA96" s="6" t="s">
         <v>313</v>
@@ -7901,13 +8187,13 @@
         <v>314</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>1165</v>
+        <v>1143</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>1166</v>
+        <v>1144</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>1167</v>
+        <v>1145</v>
       </c>
       <c r="AF96" s="6" t="s">
         <v>69</v>
@@ -8109,7 +8395,7 @@
     </row>
     <row r="6" spans="1:40" ht="26.5" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
@@ -8138,7 +8424,7 @@
     </row>
     <row r="11" spans="1:40" ht="178" customHeight="1">
       <c r="B11" s="15" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="24" customHeight="1">
@@ -8167,46 +8453,46 @@
     </row>
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="AN16" s="6" t="s">
         <v>69</v>
@@ -8214,46 +8500,46 @@
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="AN17" s="6" t="s">
         <v>69</v>
@@ -8261,46 +8547,46 @@
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="AN18" s="6" t="s">
         <v>69</v>
@@ -8308,46 +8594,46 @@
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>69</v>
@@ -8355,46 +8641,46 @@
     </row>
     <row r="20" spans="1:40" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="AN20" s="6" t="s">
         <v>69</v>
@@ -8402,46 +8688,46 @@
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="AL21" s="6" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="AN21" s="6" t="s">
         <v>69</v>
@@ -8449,46 +8735,46 @@
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="AK22" s="6" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="AL22" s="6" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="AM22" s="6" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="AN22" s="6" t="s">
         <v>69</v>
@@ -8528,7 +8814,7 @@
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="24" customHeight="1">
@@ -8552,16 +8838,16 @@
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="AD34" s="6" t="s">
         <v>69</v>
@@ -8569,16 +8855,16 @@
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="AD35" s="6" t="s">
         <v>69</v>
@@ -8610,22 +8896,22 @@
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="AF40" s="6" t="s">
         <v>69</v>
@@ -8681,13 +8967,13 @@
     </row>
     <row r="49" spans="1:37" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>69</v>
@@ -8695,7 +8981,7 @@
     </row>
     <row r="50" spans="1:37" ht="17.5">
       <c r="B50" s="11" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
     </row>
     <row r="52" spans="1:37" ht="24" customHeight="1">
@@ -8737,31 +9023,31 @@
     </row>
     <row r="58" spans="1:37" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="AA58" s="6" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="AD58" s="6" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="AE58" s="6" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="AF58" s="6" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="AI58" s="6" t="s">
         <v>377</v>
@@ -8775,7 +9061,7 @@
     </row>
     <row r="59" spans="1:37" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
     </row>
     <row r="60" spans="1:37" ht="24" customHeight="1">
@@ -9007,28 +9293,28 @@
     </row>
     <row r="80" spans="1:50" ht="24" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="AA80" s="6" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="AB80" s="6" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="AC80" s="6" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="AD80" s="6" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="AE80" s="6" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="AF80" s="6" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="AG80" s="6" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="AH80" s="6" t="s">
         <v>69</v>
@@ -9036,28 +9322,28 @@
     </row>
     <row r="81" spans="1:34" ht="24" customHeight="1">
       <c r="B81" s="11" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="AA81" s="6" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="AB81" s="6" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="AC81" s="6" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="AD81" s="6" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="AE81" s="6" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="AF81" s="6" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="AG81" s="6" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="AH81" s="6" t="s">
         <v>69</v>
@@ -9065,28 +9351,28 @@
     </row>
     <row r="82" spans="1:34" ht="24" customHeight="1">
       <c r="B82" s="11" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="AA82" s="6" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="AB82" s="6" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="AC82" s="6" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="AD82" s="6" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="AE82" s="6" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="AF82" s="6" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="AG82" s="6" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="AH82" s="6" t="s">
         <v>69</v>
@@ -9118,22 +9404,22 @@
     </row>
     <row r="87" spans="1:34" ht="24" customHeight="1">
       <c r="B87" s="11" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="AA87" s="6" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="AF87" s="6" t="s">
         <v>69</v>
@@ -9141,22 +9427,22 @@
     </row>
     <row r="88" spans="1:34" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="AF88" s="6" t="s">
         <v>69</v>
@@ -9164,22 +9450,22 @@
     </row>
     <row r="89" spans="1:34" ht="24" customHeight="1">
       <c r="B89" s="11" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AA89" s="6" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="AB89" s="6" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AC89" s="6" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AE89" s="6" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="AF89" s="6" t="s">
         <v>69</v>
@@ -9224,19 +9510,19 @@
     </row>
     <row r="97" spans="1:31" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="AE97" s="6" t="s">
         <v>69</v>
@@ -9244,19 +9530,19 @@
     </row>
     <row r="98" spans="1:31" ht="24" customHeight="1">
       <c r="B98" s="11" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="AA98" s="6" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="AB98" s="6" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="AC98" s="6" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="AD98" s="6" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="AE98" s="6" t="s">
         <v>69</v>
@@ -9288,13 +9574,13 @@
     </row>
     <row r="103" spans="1:31" ht="24" customHeight="1">
       <c r="B103" s="11" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AA103" s="6" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AB103" s="6" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AC103" s="6" t="s">
         <v>69</v>
@@ -9386,25 +9672,25 @@
     </row>
     <row r="120" spans="1:33" ht="24" customHeight="1">
       <c r="B120" s="11" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="AA120" s="6" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="AB120" s="6" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="AC120" s="6" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="AD120" s="6" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="AE120" s="6" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="AF120" s="6" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="AG120" s="6" t="s">
         <v>69</v>
@@ -9412,25 +9698,25 @@
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
       <c r="B121" s="11" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="AA121" s="6" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="AB121" s="6" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="AC121" s="6" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="AD121" s="6" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="AE121" s="6" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="AF121" s="6" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="AG121" s="6" t="s">
         <v>69</v>
@@ -9462,22 +9748,22 @@
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
       <c r="B126" s="11" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AA126" s="6" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="AB126" s="6" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AC126" s="6" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="AD126" s="6" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AE126" s="6" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="AF126" s="6" t="s">
         <v>69</v>
@@ -9517,7 +9803,7 @@
     </row>
     <row r="134" spans="1:32" ht="24" customHeight="1">
       <c r="B134" s="11" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
     </row>
     <row r="136" spans="1:32" ht="24" customHeight="1">
@@ -9541,16 +9827,16 @@
     </row>
     <row r="138" spans="1:32" ht="24" customHeight="1">
       <c r="B138" s="11" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="AA138" s="6" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="AB138" s="6" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="AC138" s="6" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="AD138" s="6" t="s">
         <v>69</v>
@@ -9558,16 +9844,16 @@
     </row>
     <row r="139" spans="1:32" ht="24" customHeight="1">
       <c r="B139" s="11" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="AA139" s="6" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="AB139" s="6" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="AC139" s="6" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="AD139" s="6" t="s">
         <v>69</v>
@@ -9599,22 +9885,22 @@
     </row>
     <row r="144" spans="1:32" ht="24" customHeight="1">
       <c r="B144" s="11" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="AA144" s="6" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="AB144" s="6" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="AC144" s="6" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="AD144" s="6" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="AE144" s="6" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="AF144" s="6" t="s">
         <v>69</v>
@@ -9670,13 +9956,13 @@
     </row>
     <row r="153" spans="1:29" ht="24" customHeight="1">
       <c r="B153" s="11" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="AA153" s="6" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="AB153" s="6" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="AC153" s="6" t="s">
         <v>69</v>
@@ -9684,13 +9970,13 @@
     </row>
     <row r="154" spans="1:29" ht="17.5">
       <c r="B154" s="11" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="AA154" s="6" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="AB154" s="6" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="AC154" s="6" t="s">
         <v>69</v>
@@ -9735,31 +10021,31 @@
     </row>
     <row r="162" spans="1:44" ht="24" customHeight="1">
       <c r="B162" s="11" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="AA162" s="6" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="AB162" s="6" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="AC162" s="6" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="AD162" s="6" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="AE162" s="6" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="AF162" s="6" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="AG162" s="6" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="AH162" s="6" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="AI162" s="6" t="s">
         <v>377</v>
@@ -9773,31 +10059,31 @@
     </row>
     <row r="163" spans="1:44" ht="24" customHeight="1">
       <c r="B163" s="11" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="AA163" s="6" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="AB163" s="6" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="AC163" s="6" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="AD163" s="6" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="AE163" s="6" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="AF163" s="6" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="AG163" s="6" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="AH163" s="6" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="AI163" s="6" t="s">
         <v>377</v>
@@ -9811,31 +10097,31 @@
     </row>
     <row r="164" spans="1:44" ht="24" customHeight="1">
       <c r="B164" s="11" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="AA164" s="6" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="AB164" s="6" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="AC164" s="6" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="AD164" s="6" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="AE164" s="6" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="AF164" s="6" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="AG164" s="6" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="AH164" s="6" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="AI164" s="6" t="s">
         <v>377</v>
@@ -9852,28 +10138,28 @@
         <v>377</v>
       </c>
       <c r="AA165" s="6" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="AB165" s="6" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="AC165" s="6" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="AD165" s="6" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="AE165" s="6" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="AF165" s="6" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="AG165" s="6" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="AH165" s="6" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="AI165" s="6" t="s">
         <v>377</v>
@@ -9890,28 +10176,28 @@
         <v>378</v>
       </c>
       <c r="AA166" s="6" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="AB166" s="6" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="AC166" s="6" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="AD166" s="6" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="AE166" s="6" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="AF166" s="6" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="AG166" s="6" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="AH166" s="6" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="AI166" s="6" t="s">
         <v>377</v>
@@ -9949,58 +10235,58 @@
     </row>
     <row r="171" spans="1:44" ht="24" customHeight="1">
       <c r="B171" s="11" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="AA171" s="6" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="AB171" s="6" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="AC171" s="6" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="AD171" s="6" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="AE171" s="6" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="AF171" s="6" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="AG171" s="6" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="AH171" s="6" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="AI171" s="6" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="AJ171" s="6" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="AK171" s="6" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="AL171" s="6" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="AM171" s="6" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="AN171" s="6" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="AO171" s="6" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="AP171" s="6" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="AQ171" s="6" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="AR171" s="6" t="s">
         <v>69</v>
@@ -10008,58 +10294,58 @@
     </row>
     <row r="172" spans="1:44" ht="24" customHeight="1">
       <c r="B172" s="11" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="AA172" s="6" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="AB172" s="6" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="AC172" s="6" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="AD172" s="6" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="AE172" s="6" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="AF172" s="6" t="s">
-        <v>995</v>
+        <v>973</v>
       </c>
       <c r="AG172" s="6" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="AH172" s="6" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="AI172" s="6" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="AJ172" s="6" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="AK172" s="6" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="AL172" s="6" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="AM172" s="6" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="AN172" s="6" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="AO172" s="6" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="AP172" s="6" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="AQ172" s="6" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="AR172" s="6" t="s">
         <v>69</v>
@@ -10067,58 +10353,58 @@
     </row>
     <row r="173" spans="1:44" ht="24" customHeight="1">
       <c r="B173" s="11" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="AA173" s="6" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="AB173" s="6" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="AC173" s="6" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="AD173" s="6" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="AE173" s="6" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="AF173" s="6" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
       <c r="AG173" s="6" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="AH173" s="6" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="AI173" s="6" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="AJ173" s="6" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="AK173" s="6" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="AL173" s="6" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="AM173" s="6" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="AN173" s="6" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="AO173" s="6" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="AP173" s="6" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="AQ173" s="6" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="AR173" s="6" t="s">
         <v>69</v>
@@ -10126,58 +10412,58 @@
     </row>
     <row r="174" spans="1:44" ht="24" customHeight="1">
       <c r="B174" s="11" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="AA174" s="6" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="AB174" s="6" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="AC174" s="6" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="AD174" s="6" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="AE174" s="6" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="AF174" s="6" t="s">
-        <v>997</v>
+        <v>975</v>
       </c>
       <c r="AG174" s="6" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="AH174" s="6" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="AI174" s="6" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="AJ174" s="6" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="AK174" s="6" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="AL174" s="6" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="AN174" s="6" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="AO174" s="6" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="AP174" s="6" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="AQ174" s="6" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="AR174" s="6" t="s">
         <v>69</v>
@@ -10185,58 +10471,58 @@
     </row>
     <row r="175" spans="1:44" ht="24" customHeight="1">
       <c r="B175" s="11" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="AA175" s="6" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="AB175" s="6" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="AC175" s="6" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="AD175" s="6" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="AE175" s="6" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="AF175" s="6" t="s">
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="AG175" s="6" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="AH175" s="6" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="AI175" s="6" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="AJ175" s="6" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="AK175" s="6" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="AL175" s="6" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="AN175" s="6" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="AO175" s="6" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="AP175" s="6" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="AQ175" s="6" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="AR175" s="6" t="s">
         <v>69</v>
@@ -10244,58 +10530,58 @@
     </row>
     <row r="176" spans="1:44" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="AC176" s="6" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="AD176" s="6" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="AE176" s="6" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="AF176" s="6" t="s">
-        <v>999</v>
+        <v>977</v>
       </c>
       <c r="AG176" s="6" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="AH176" s="6" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="AI176" s="6" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="AJ176" s="6" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="AK176" s="6" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="AL176" s="6" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="AN176" s="6" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="AO176" s="6" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="AP176" s="6" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="AQ176" s="6" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="AR176" s="6" t="s">
         <v>69</v>
@@ -10303,58 +10589,58 @@
     </row>
     <row r="177" spans="1:50" ht="24" customHeight="1">
       <c r="B177" s="11" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="AA177" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="AB177" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="AC177" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="AD177" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="AE177" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="AF177" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="AB177" s="6" t="s">
-        <v>979</v>
-      </c>
-      <c r="AC177" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="AD177" s="6" t="s">
-        <v>981</v>
-      </c>
-      <c r="AE177" s="6" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF177" s="6" t="s">
-        <v>1000</v>
-      </c>
       <c r="AG177" s="6" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="AH177" s="6" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="AI177" s="6" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="AJ177" s="6" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="AK177" s="6" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="AL177" s="6" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="AM177" s="6" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="AN177" s="6" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="AO177" s="6" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="AP177" s="6" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="AQ177" s="6" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="AR177" s="6" t="s">
         <v>69</v>
@@ -10386,67 +10672,67 @@
     </row>
     <row r="182" spans="1:50" ht="17.5">
       <c r="B182" s="11" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="AA182" s="6" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="AB182" s="6" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="AC182" s="6" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="AD182" s="6" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="AE182" s="6" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="AF182" s="6" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="AG182" s="6" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="AH182" s="6" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="AI182" s="6" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="AJ182" s="6" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="AK182" s="6" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="AL182" s="6" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="AM182" s="6" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="AN182" s="6" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="AO182" s="6" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="AP182" s="6" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="AQ182" s="6" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="AR182" s="6" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="AS182" s="6" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="AT182" s="6" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="AU182" s="6" t="s">
         <v>424</v>
@@ -10463,67 +10749,67 @@
     </row>
     <row r="183" spans="1:50" ht="17.5">
       <c r="B183" s="11" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="AA183" s="6" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="AC183" s="6" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="AD183" s="6" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="AE183" s="6" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="AF183" s="6" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="AG183" s="6" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="AH183" s="6" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="AI183" s="6" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="AJ183" s="6" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="AK183" s="6" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="AL183" s="6" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="AM183" s="6" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="AN183" s="6" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="AO183" s="6" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="AP183" s="6" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="AQ183" s="6" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="AR183" s="6" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="AS183" s="6" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="AT183" s="6" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="AU183" s="6" t="s">
         <v>424</v>
@@ -10540,67 +10826,67 @@
     </row>
     <row r="184" spans="1:50" ht="17.5">
       <c r="B184" s="11" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="AA184" s="6" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="AB184" s="6" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="AC184" s="6" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="AD184" s="6" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="AE184" s="6" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="AF184" s="6" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="AG184" s="6" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="AH184" s="6" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="AI184" s="6" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="AJ184" s="6" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="AK184" s="6" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="AL184" s="6" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="AM184" s="6" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="AN184" s="6" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="AO184" s="6" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="AP184" s="6" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="AQ184" s="6" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="AR184" s="6" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="AS184" s="6" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="AT184" s="6" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="AU184" s="6" t="s">
         <v>424</v>
@@ -10617,67 +10903,67 @@
     </row>
     <row r="185" spans="1:50" ht="17.5">
       <c r="B185" s="11" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="AA185" s="6" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="AB185" s="6" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="AC185" s="6" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="AD185" s="6" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="AE185" s="6" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="AF185" s="6" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="AG185" s="6" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="AH185" s="6" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="AI185" s="6" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="AJ185" s="6" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="AK185" s="6" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="AL185" s="6" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="AM185" s="6" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="AN185" s="6" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="AO185" s="6" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="AP185" s="6" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="AQ185" s="6" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="AR185" s="6" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="AS185" s="6" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="AT185" s="6" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="AU185" s="6" t="s">
         <v>424</v>
@@ -10694,67 +10980,67 @@
     </row>
     <row r="186" spans="1:50" ht="17.5">
       <c r="B186" s="11" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="AA186" s="6" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="AB186" s="6" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="AC186" s="6" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="AD186" s="6" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="AE186" s="6" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="AF186" s="6" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="AG186" s="6" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="AH186" s="6" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="AI186" s="6" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="AJ186" s="6" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="AK186" s="6" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="AL186" s="6" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="AM186" s="6" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="AN186" s="6" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="AO186" s="6" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="AP186" s="6" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="AQ186" s="6" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="AR186" s="6" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="AS186" s="6" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="AT186" s="6" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="AU186" s="6" t="s">
         <v>424</v>
@@ -10771,7 +11057,7 @@
     </row>
     <row r="187" spans="1:50" ht="17.5">
       <c r="B187" s="11" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
     </row>
     <row r="188" spans="1:50" ht="17.5">
@@ -10779,64 +11065,64 @@
         <v>425</v>
       </c>
       <c r="AA188" s="6" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="AB188" s="6" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="AC188" s="6" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="AD188" s="6" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="AE188" s="6" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="AF188" s="6" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="AG188" s="6" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="AH188" s="6" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="AI188" s="6" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="AJ188" s="6" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="AK188" s="6" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="AL188" s="6" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="AM188" s="6" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="AN188" s="6" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="AO188" s="6" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="AP188" s="6" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="AQ188" s="6" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="AR188" s="6" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="AS188" s="6" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="AT188" s="6" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="AU188" s="6" t="s">
         <v>424</v>
@@ -10890,28 +11176,28 @@
     </row>
     <row r="196" spans="1:34" ht="24" customHeight="1">
       <c r="B196" s="11" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="AA196" s="6" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="AB196" s="6" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="AC196" s="6" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="AD196" s="6" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="AE196" s="6" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="AF196" s="6" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="AG196" s="6" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="AH196" s="6" t="s">
         <v>69</v>
@@ -10919,28 +11205,28 @@
     </row>
     <row r="197" spans="1:34" ht="24" customHeight="1">
       <c r="B197" s="11" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="AA197" s="6" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="AB197" s="6" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="AC197" s="6" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="AD197" s="6" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="AE197" s="6" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="AF197" s="6" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="AG197" s="6" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="AH197" s="6" t="s">
         <v>69</v>
@@ -10948,28 +11234,28 @@
     </row>
     <row r="198" spans="1:34" ht="24" customHeight="1">
       <c r="B198" s="11" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="AA198" s="6" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="AB198" s="6" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="AC198" s="6" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="AD198" s="6" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="AE198" s="6" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="AF198" s="6" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="AG198" s="6" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="AH198" s="6" t="s">
         <v>69</v>
@@ -11001,22 +11287,22 @@
     </row>
     <row r="203" spans="1:34" ht="24" customHeight="1">
       <c r="B203" s="11" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="AA203" s="6" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="AB203" s="6" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AC203" s="6" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="AD203" s="6" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AE203" s="6" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="AF203" s="6" t="s">
         <v>69</v>
@@ -11024,22 +11310,22 @@
     </row>
     <row r="204" spans="1:34" ht="24" customHeight="1">
       <c r="B204" s="11" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="AA204" s="6" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="AB204" s="6" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AC204" s="6" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="AD204" s="6" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AE204" s="6" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="AF204" s="6" t="s">
         <v>69</v>
@@ -11047,22 +11333,22 @@
     </row>
     <row r="205" spans="1:34" ht="24" customHeight="1">
       <c r="B205" s="11" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AA205" s="6" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="AB205" s="6" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AC205" s="6" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="AD205" s="6" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AE205" s="6" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="AF205" s="6" t="s">
         <v>69</v>
@@ -11107,19 +11393,19 @@
     </row>
     <row r="214" spans="1:31" ht="24" customHeight="1">
       <c r="B214" s="11" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="AA214" s="6" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="AB214" s="6" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="AC214" s="6" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="AD214" s="6" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="AE214" s="6" t="s">
         <v>69</v>
@@ -11127,19 +11413,19 @@
     </row>
     <row r="215" spans="1:31" ht="24" customHeight="1">
       <c r="B215" s="11" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="AA215" s="6" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="AB215" s="6" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="AC215" s="6" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="AD215" s="6" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="AE215" s="6" t="s">
         <v>69</v>
@@ -11171,13 +11457,13 @@
     </row>
     <row r="220" spans="1:31" ht="24" customHeight="1">
       <c r="B220" s="11" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AA220" s="6" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AB220" s="6" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AC220" s="6" t="s">
         <v>69</v>
@@ -11269,25 +11555,25 @@
     </row>
     <row r="237" spans="1:33" ht="24" customHeight="1">
       <c r="B237" s="11" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="AA237" s="6" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="AB237" s="6" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="AC237" s="6" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="AD237" s="6" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="AE237" s="6" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="AF237" s="6" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="AG237" s="6" t="s">
         <v>69</v>
@@ -11295,25 +11581,25 @@
     </row>
     <row r="238" spans="1:33" ht="24" customHeight="1">
       <c r="B238" s="11" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="AA238" s="6" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="AB238" s="6" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="AC238" s="6" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="AD238" s="6" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="AE238" s="6" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="AF238" s="6" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="AG238" s="6" t="s">
         <v>69</v>
@@ -11345,22 +11631,22 @@
     </row>
     <row r="243" spans="1:32" ht="24" customHeight="1">
       <c r="B243" s="11" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AA243" s="6" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="AB243" s="6" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="AC243" s="6" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="AD243" s="6" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="AE243" s="6" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="AF243" s="6" t="s">
         <v>69</v>
@@ -11499,7 +11785,7 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>1085</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -11536,7 +11822,7 @@
     </row>
     <row r="19" spans="1:37" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>1086</v>
+        <v>1064</v>
       </c>
       <c r="AA19" s="6" t="s">
         <v>543</v>
@@ -11545,7 +11831,7 @@
         <v>544</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>1087</v>
+        <v>1065</v>
       </c>
       <c r="AD19" s="6" t="s">
         <v>69</v>
@@ -11589,16 +11875,16 @@
         <v>550</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>1088</v>
+        <v>1066</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>1089</v>
+        <v>1067</v>
       </c>
       <c r="AF24" s="6" t="s">
         <v>551</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>1090</v>
+        <v>1068</v>
       </c>
       <c r="AH24" s="6" t="s">
         <v>552</v>
@@ -11607,7 +11893,7 @@
         <v>553</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>1091</v>
+        <v>1069</v>
       </c>
       <c r="AK24" s="6" t="s">
         <v>69</v>
@@ -11627,16 +11913,16 @@
         <v>550</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>1088</v>
+        <v>1066</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>1089</v>
+        <v>1067</v>
       </c>
       <c r="AF25" s="6" t="s">
         <v>551</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>1090</v>
+        <v>1068</v>
       </c>
       <c r="AH25" s="6" t="s">
         <v>552</v>
@@ -11645,7 +11931,7 @@
         <v>553</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>1091</v>
+        <v>1069</v>
       </c>
       <c r="AK25" s="6" t="s">
         <v>69</v>
@@ -11736,7 +12022,7 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>1092</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -11765,16 +12051,16 @@
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>1093</v>
+        <v>1071</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>1093</v>
+        <v>1071</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>1094</v>
+        <v>1072</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>1095</v>
+        <v>1073</v>
       </c>
       <c r="AD46" s="6" t="s">
         <v>69</v>
@@ -11782,16 +12068,16 @@
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>1095</v>
+        <v>1073</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>1093</v>
+        <v>1071</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>1094</v>
+        <v>1072</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>1095</v>
+        <v>1073</v>
       </c>
       <c r="AD47" s="6" t="s">
         <v>69</v>
@@ -11826,22 +12112,22 @@
         <v>69</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1096</v>
+        <v>1074</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>1097</v>
+        <v>1075</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>1098</v>
+        <v>1076</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="AF52" s="6" t="s">
         <v>69</v>
@@ -11873,34 +12159,34 @@
     </row>
     <row r="57" spans="1:36" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AC57" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AE57" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AF57" s="6" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="AI57" s="6" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AJ57" s="6" t="s">
         <v>69</v>
@@ -11908,34 +12194,34 @@
     </row>
     <row r="58" spans="1:36" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AA58" s="6" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AD58" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AE58" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AF58" s="6" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="AI58" s="6" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AJ58" s="6" t="s">
         <v>69</v>
@@ -11943,34 +12229,34 @@
     </row>
     <row r="59" spans="1:36" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AA59" s="6" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="AB59" s="6" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AC59" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AD59" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AE59" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AF59" s="6" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="AG59" s="6" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="AH59" s="6" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="AI59" s="6" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AJ59" s="6" t="s">
         <v>69</v>
@@ -11978,34 +12264,34 @@
     </row>
     <row r="60" spans="1:36" ht="24" customHeight="1">
       <c r="B60" s="11" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="AA60" s="6" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AF60" s="6" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="AH60" s="6" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="AI60" s="6" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AJ60" s="6" t="s">
         <v>69</v>
@@ -12013,34 +12299,34 @@
     </row>
     <row r="61" spans="1:36" ht="24" customHeight="1">
       <c r="B61" s="11" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="AA61" s="6" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AE61" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AF61" s="6" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="AH61" s="6" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="AI61" s="6" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AJ61" s="6" t="s">
         <v>69</v>
@@ -12048,34 +12334,34 @@
     </row>
     <row r="62" spans="1:36" ht="24" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AA62" s="6" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AE62" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AF62" s="6" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="AH62" s="6" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="AI62" s="6" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AJ62" s="6" t="s">
         <v>69</v>
@@ -12107,16 +12393,16 @@
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>69</v>
@@ -12156,7 +12442,7 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>1111</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -12185,13 +12471,13 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>1093</v>
+        <v>1071</v>
       </c>
       <c r="AA80" s="6" t="s">
-        <v>1093</v>
+        <v>1071</v>
       </c>
       <c r="AB80" s="6" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
       <c r="AC80" s="6" t="s">
         <v>69</v>
@@ -12218,16 +12504,16 @@
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>1113</v>
+        <v>1091</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>1114</v>
+        <v>1092</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>1115</v>
+        <v>1093</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>1113</v>
+        <v>1091</v>
       </c>
       <c r="AD84" s="6" t="s">
         <v>69</v>
@@ -12259,22 +12545,22 @@
     </row>
     <row r="89" spans="1:32" ht="24" customHeight="1">
       <c r="B89" s="11" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AA89" s="6" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AB89" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AC89" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AE89" s="6" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AF89" s="6" t="s">
         <v>69</v>
@@ -12282,22 +12568,22 @@
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
       <c r="B90" s="11" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AA90" s="6" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AE90" s="6" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AF90" s="6" t="s">
         <v>69</v>
@@ -12305,22 +12591,22 @@
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AE91" s="6" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AF91" s="6" t="s">
         <v>69</v>
@@ -12328,22 +12614,22 @@
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
       <c r="B92" s="11" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AA92" s="6" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="AB92" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AC92" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AD92" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="AE92" s="6" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="AF92" s="6" t="s">
         <v>69</v>
@@ -12375,16 +12661,16 @@
     </row>
     <row r="97" spans="2:30" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="AD97" s="6" t="s">
         <v>69</v>
@@ -12421,9 +12707,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
@@ -12493,7 +12781,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -12555,120 +12845,339 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>1147</v>
+      </c>
       <c r="AA24" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="24" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="AB24" s="6" t="s">
+      <c r="B28" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="AC24" s="6" t="s">
+    </row>
+    <row r="29" spans="1:31" ht="24" customHeight="1">
+      <c r="B29" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="AD24" s="6" t="s">
+    </row>
+    <row r="31" spans="1:31" ht="24" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="AE24" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="B31" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="24" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="B28" s="13" t="s">
+    <row r="33" spans="1:35" ht="24" customHeight="1">
+      <c r="B33" s="11"/>
+    </row>
+    <row r="35" spans="1:35" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="B35" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
-    </row>
-    <row r="34" spans="1:35" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" ht="24" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" ht="24" customHeight="1">
-      <c r="B36" s="10" t="s">
+    </row>
+    <row r="37" spans="1:35" ht="24" customHeight="1">
+      <c r="B37" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-      <c r="AA37" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="AC37" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="AD37" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="AE37" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="AF37" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="AG37" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="AH37" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="AI37" s="6" t="s">
+    <row r="38" spans="1:35" ht="24" customHeight="1">
+      <c r="B38" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" ht="24" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AI39" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="24" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AH40" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AI40" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" ht="24" customHeight="1">
+      <c r="B41" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AB41" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AD41" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AE41" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AF41" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AG41" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AH41" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AI41" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" ht="24" customHeight="1">
+      <c r="B42" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AA42" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AD42" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AE42" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AF42" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AG42" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AH42" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AI42" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="24" customHeight="1">
+      <c r="B43" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AC43" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AD43" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AE43" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AF43" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AG43" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AH43" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AI43" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="24" customHeight="1">
+      <c r="B44" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AA44" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AE44" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AF44" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AG44" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AH44" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AI44" s="6" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:B25" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>AA24:AE24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{00000000-0002-0000-0700-000001000000}">
-      <formula1>AA37:AI37</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B44" xr:uid="{00000000-0002-0000-0700-000001000000}">
+      <formula1>AA38:AI38</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12693,20 +13202,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -12717,20 +13226,20 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>57</v>
@@ -12741,10 +13250,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -12754,12 +13263,12 @@
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>1021</v>
+        <v>999</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>179</v>
@@ -12770,10 +13279,10 @@
         <v>64</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -12783,13 +13292,13 @@
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>69</v>
@@ -12797,10 +13306,10 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
@@ -12808,20 +13317,20 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="42.65" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>1025</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>575</v>
@@ -12832,10 +13341,10 @@
         <v>64</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -12848,16 +13357,16 @@
         <v>69</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1026</v>
+        <v>1004</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>1029</v>
+        <v>1007</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>69</v>
@@ -12865,7 +13374,7 @@
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>237</v>
@@ -12876,10 +13385,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
@@ -12889,28 +13398,28 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="AH30" s="6" t="s">
         <v>69</v>
@@ -12918,28 +13427,28 @@
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="AE31" s="6" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="AH31" s="6" t="s">
         <v>69</v>
@@ -12950,28 +13459,28 @@
         <v>69</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="AH32" s="6" t="s">
         <v>69</v>
@@ -12982,28 +13491,28 @@
         <v>69</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="AH33" s="6" t="s">
         <v>69</v>
@@ -13011,10 +13520,10 @@
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="36" spans="1:34" ht="24" customHeight="1">
@@ -13022,10 +13531,10 @@
         <v>64</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
@@ -13035,115 +13544,115 @@
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="24" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:34" ht="24" customHeight="1">
       <c r="B45" s="13" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="24" customHeight="1">
@@ -13151,27 +13660,27 @@
         <v>64</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>1044</v>
+        <v>1022</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>1045</v>
+        <v>1023</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>1046</v>
+        <v>1024</v>
       </c>
       <c r="AE49" s="6" t="s">
         <v>69</v>
@@ -13179,7 +13688,7 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>451</v>
@@ -13190,33 +13699,33 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>1047</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
       <c r="B57" s="13" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>128</v>
@@ -13227,29 +13736,29 @@
         <v>64</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="B61" s="11" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="AA61" s="6" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -13257,23 +13766,23 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>1048</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
@@ -13281,10 +13790,10 @@
         <v>101</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
@@ -13292,10 +13801,10 @@
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -13303,10 +13812,10 @@
         <v>64</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
@@ -13316,34 +13825,34 @@
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>1049</v>
+        <v>1027</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>1050</v>
+        <v>1028</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>1049</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="A77" s="12" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
       <c r="B78" s="13" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>128</v>
@@ -13354,29 +13863,29 @@
         <v>64</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="24" customHeight="1">
       <c r="B82" s="11" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="AA82" s="6" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="AB82" s="6" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="24" customHeight="1">
@@ -13384,23 +13893,23 @@
         <v>46</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86" spans="1:29" ht="24" customHeight="1">
       <c r="B86" s="11" t="s">
-        <v>1048</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="24" customHeight="1">
@@ -13408,10 +13917,10 @@
         <v>101</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="24" customHeight="1">
@@ -13419,10 +13928,10 @@
     </row>
     <row r="92" spans="1:29" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
     <row r="93" spans="1:29" ht="24" customHeight="1">
@@ -13430,10 +13939,10 @@
         <v>64</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="94" spans="1:29" ht="24" customHeight="1">
@@ -13443,16 +13952,16 @@
     </row>
     <row r="95" spans="1:29" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>1049</v>
+        <v>1027</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>1050</v>
+        <v>1028</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>1049</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
